--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2733.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2733.xlsx
@@ -354,7 +354,7 @@
         <v>2.399892107177994</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.369716257092272</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2733.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2733.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.1607746956496</v>
+        <v>0.7241352796554565</v>
       </c>
       <c r="B1">
-        <v>2.399892107177994</v>
+        <v>1.186225533485413</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.383294820785522</v>
       </c>
       <c r="D1">
-        <v>2.369716257092272</v>
+        <v>3.465487241744995</v>
       </c>
       <c r="E1">
-        <v>1.219041901576105</v>
+        <v>3.12832236289978</v>
       </c>
     </row>
   </sheetData>
